--- a/web/data/Hasil_Klastering_Kecelakaan_Padang_Lawas_Utara.xlsx
+++ b/web/data/Hasil_Klastering_Kecelakaan_Padang_Lawas_Utara.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="22">
   <si>
     <t>Kecamatan</t>
   </si>
@@ -34,21 +34,6 @@
     <t>Jumlah Luka Ringan</t>
   </si>
   <si>
-    <t>Kondisi Jalan</t>
-  </si>
-  <si>
-    <t>Cuaca</t>
-  </si>
-  <si>
-    <t>Waktu Kecelakaan</t>
-  </si>
-  <si>
-    <t>Jumlah Kendaraan</t>
-  </si>
-  <si>
-    <t>Kecepatan Rata-rata</t>
-  </si>
-  <si>
     <t>Cluster</t>
   </si>
   <si>
@@ -91,40 +76,7 @@
     <t>Ujung Batu</t>
   </si>
   <si>
-    <t>Sedang</t>
-  </si>
-  <si>
-    <t>Baik</t>
-  </si>
-  <si>
-    <t>Buruk</t>
-  </si>
-  <si>
-    <t>Hujan</t>
-  </si>
-  <si>
-    <t>Berawan</t>
-  </si>
-  <si>
-    <t>Cerah</t>
-  </si>
-  <si>
-    <t>Pagi</t>
-  </si>
-  <si>
-    <t>Siang</t>
-  </si>
-  <si>
-    <t>Malam</t>
-  </si>
-  <si>
-    <t>Sangat Rawan</t>
-  </si>
-  <si>
-    <t>Aman</t>
-  </si>
-  <si>
-    <t>Berpotensi Rawan</t>
+    <t>Tidak Rawan</t>
   </si>
   <si>
     <t>Rawan</t>
@@ -485,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,25 +468,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
       </c>
       <c r="B2">
         <v>2019</v>
@@ -551,31 +488,16 @@
       <c r="F2">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
-        <v>25</v>
+      <c r="G2">
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2">
-        <v>411</v>
-      </c>
-      <c r="K2">
-        <v>46</v>
-      </c>
-      <c r="L2">
-        <v>3</v>
-      </c>
-      <c r="M2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2020</v>
@@ -592,31 +514,16 @@
       <c r="F3">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
-        <v>26</v>
+      <c r="G3">
+        <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3">
-        <v>251</v>
-      </c>
-      <c r="K3">
-        <v>42</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>2021</v>
@@ -633,31 +540,16 @@
       <c r="F4">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>25</v>
+      <c r="G4">
+        <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4">
-        <v>272</v>
-      </c>
-      <c r="K4">
-        <v>46</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>2022</v>
@@ -674,31 +566,16 @@
       <c r="F5">
         <v>42</v>
       </c>
-      <c r="G5" t="s">
-        <v>25</v>
+      <c r="G5">
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5">
-        <v>312</v>
-      </c>
-      <c r="K5">
-        <v>64</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>2023</v>
@@ -715,31 +592,16 @@
       <c r="F6">
         <v>40</v>
       </c>
-      <c r="G6" t="s">
-        <v>26</v>
+      <c r="G6">
+        <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6">
-        <v>207</v>
-      </c>
-      <c r="K6">
-        <v>60</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>2019</v>
@@ -756,31 +618,16 @@
       <c r="F7">
         <v>33</v>
       </c>
-      <c r="G7" t="s">
-        <v>27</v>
+      <c r="G7">
+        <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7">
-        <v>343</v>
-      </c>
-      <c r="K7">
-        <v>43</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>2020</v>
@@ -797,31 +644,16 @@
       <c r="F8">
         <v>47</v>
       </c>
-      <c r="G8" t="s">
-        <v>25</v>
+      <c r="G8">
+        <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8">
-        <v>193</v>
-      </c>
-      <c r="K8">
-        <v>58</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>2021</v>
@@ -838,31 +670,16 @@
       <c r="F9">
         <v>41</v>
       </c>
-      <c r="G9" t="s">
-        <v>25</v>
+      <c r="G9">
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9">
-        <v>223</v>
-      </c>
-      <c r="K9">
-        <v>66</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>2022</v>
@@ -879,31 +696,16 @@
       <c r="F10">
         <v>27</v>
       </c>
-      <c r="G10" t="s">
-        <v>26</v>
+      <c r="G10">
+        <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10">
-        <v>499</v>
-      </c>
-      <c r="K10">
-        <v>73</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>2023</v>
@@ -920,31 +722,16 @@
       <c r="F11">
         <v>29</v>
       </c>
-      <c r="G11" t="s">
-        <v>27</v>
+      <c r="G11">
+        <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11">
-        <v>444</v>
-      </c>
-      <c r="K11">
-        <v>40</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>2019</v>
@@ -961,31 +748,16 @@
       <c r="F12">
         <v>26</v>
       </c>
-      <c r="G12" t="s">
-        <v>26</v>
+      <c r="G12">
+        <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12">
-        <v>162</v>
-      </c>
-      <c r="K12">
-        <v>55</v>
-      </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
-      <c r="M12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>2020</v>
@@ -1002,31 +774,16 @@
       <c r="F13">
         <v>43</v>
       </c>
-      <c r="G13" t="s">
-        <v>25</v>
+      <c r="G13">
+        <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13">
-        <v>194</v>
-      </c>
-      <c r="K13">
-        <v>67</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>2021</v>
@@ -1043,31 +800,16 @@
       <c r="F14">
         <v>15</v>
       </c>
-      <c r="G14" t="s">
-        <v>27</v>
+      <c r="G14">
+        <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14">
-        <v>334</v>
-      </c>
-      <c r="K14">
-        <v>66</v>
-      </c>
-      <c r="L14">
-        <v>3</v>
-      </c>
-      <c r="M14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2022</v>
@@ -1084,31 +826,16 @@
       <c r="F15">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>25</v>
+      <c r="G15">
+        <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15">
-        <v>284</v>
-      </c>
-      <c r="K15">
-        <v>62</v>
-      </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-      <c r="M15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>2023</v>
@@ -1125,31 +852,16 @@
       <c r="F16">
         <v>47</v>
       </c>
-      <c r="G16" t="s">
-        <v>25</v>
+      <c r="G16">
+        <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16">
-        <v>171</v>
-      </c>
-      <c r="K16">
-        <v>41</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>2019</v>
@@ -1166,31 +878,16 @@
       <c r="F17">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>26</v>
+      <c r="G17">
+        <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17">
-        <v>121</v>
-      </c>
-      <c r="K17">
-        <v>48</v>
-      </c>
-      <c r="L17">
-        <v>2</v>
-      </c>
-      <c r="M17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <v>2020</v>
@@ -1207,31 +904,16 @@
       <c r="F18">
         <v>40</v>
       </c>
-      <c r="G18" t="s">
-        <v>26</v>
+      <c r="G18">
+        <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18">
-        <v>125</v>
-      </c>
-      <c r="K18">
-        <v>64</v>
-      </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
-      <c r="M18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>2021</v>
@@ -1248,31 +930,16 @@
       <c r="F19">
         <v>14</v>
       </c>
-      <c r="G19" t="s">
-        <v>27</v>
+      <c r="G19">
+        <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19">
-        <v>207</v>
-      </c>
-      <c r="K19">
-        <v>46</v>
-      </c>
-      <c r="L19">
-        <v>3</v>
-      </c>
-      <c r="M19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>2022</v>
@@ -1289,31 +956,16 @@
       <c r="F20">
         <v>39</v>
       </c>
-      <c r="G20" t="s">
-        <v>27</v>
+      <c r="G20">
+        <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20">
-        <v>273</v>
-      </c>
-      <c r="K20">
-        <v>51</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>2023</v>
@@ -1330,31 +982,16 @@
       <c r="F21">
         <v>46</v>
       </c>
-      <c r="G21" t="s">
-        <v>26</v>
+      <c r="G21">
+        <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21">
-        <v>190</v>
-      </c>
-      <c r="K21">
-        <v>67</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B22">
         <v>2019</v>
@@ -1371,31 +1008,16 @@
       <c r="F22">
         <v>34</v>
       </c>
-      <c r="G22" t="s">
-        <v>26</v>
+      <c r="G22">
+        <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22">
-        <v>387</v>
-      </c>
-      <c r="K22">
-        <v>64</v>
-      </c>
-      <c r="L22">
-        <v>2</v>
-      </c>
-      <c r="M22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B23">
         <v>2020</v>
@@ -1412,31 +1034,16 @@
       <c r="F23">
         <v>17</v>
       </c>
-      <c r="G23" t="s">
-        <v>26</v>
+      <c r="G23">
+        <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23">
-        <v>206</v>
-      </c>
-      <c r="K23">
-        <v>66</v>
-      </c>
-      <c r="L23">
-        <v>2</v>
-      </c>
-      <c r="M23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B24">
         <v>2021</v>
@@ -1453,31 +1060,16 @@
       <c r="F24">
         <v>24</v>
       </c>
-      <c r="G24" t="s">
-        <v>26</v>
+      <c r="G24">
+        <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24">
-        <v>360</v>
-      </c>
-      <c r="K24">
-        <v>54</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>2022</v>
@@ -1494,31 +1086,16 @@
       <c r="F25">
         <v>43</v>
       </c>
-      <c r="G25" t="s">
-        <v>25</v>
+      <c r="G25">
+        <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25">
-        <v>120</v>
-      </c>
-      <c r="K25">
-        <v>40</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>2023</v>
@@ -1535,31 +1112,16 @@
       <c r="F26">
         <v>21</v>
       </c>
-      <c r="G26" t="s">
-        <v>26</v>
+      <c r="G26">
+        <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26">
-        <v>179</v>
-      </c>
-      <c r="K26">
-        <v>70</v>
-      </c>
-      <c r="L26">
-        <v>3</v>
-      </c>
-      <c r="M26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>2019</v>
@@ -1576,31 +1138,16 @@
       <c r="F27">
         <v>41</v>
       </c>
-      <c r="G27" t="s">
-        <v>26</v>
+      <c r="G27">
+        <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J27">
-        <v>299</v>
-      </c>
-      <c r="K27">
-        <v>52</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B28">
         <v>2020</v>
@@ -1617,31 +1164,16 @@
       <c r="F28">
         <v>46</v>
       </c>
-      <c r="G28" t="s">
-        <v>26</v>
+      <c r="G28">
+        <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28">
-        <v>149</v>
-      </c>
-      <c r="K28">
-        <v>48</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>2021</v>
@@ -1658,31 +1190,16 @@
       <c r="F29">
         <v>26</v>
       </c>
-      <c r="G29" t="s">
-        <v>26</v>
+      <c r="G29">
+        <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29">
-        <v>452</v>
-      </c>
-      <c r="K29">
-        <v>55</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <v>2022</v>
@@ -1699,31 +1216,16 @@
       <c r="F30">
         <v>24</v>
       </c>
-      <c r="G30" t="s">
-        <v>26</v>
+      <c r="G30">
+        <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" t="s">
-        <v>31</v>
-      </c>
-      <c r="J30">
-        <v>241</v>
-      </c>
-      <c r="K30">
-        <v>41</v>
-      </c>
-      <c r="L30">
-        <v>2</v>
-      </c>
-      <c r="M30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B31">
         <v>2023</v>
@@ -1740,31 +1242,16 @@
       <c r="F31">
         <v>28</v>
       </c>
-      <c r="G31" t="s">
-        <v>27</v>
+      <c r="G31">
+        <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J31">
-        <v>436</v>
-      </c>
-      <c r="K31">
-        <v>55</v>
-      </c>
-      <c r="L31">
-        <v>2</v>
-      </c>
-      <c r="M31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B32">
         <v>2019</v>
@@ -1781,31 +1268,16 @@
       <c r="F32">
         <v>26</v>
       </c>
-      <c r="G32" t="s">
-        <v>27</v>
+      <c r="G32">
+        <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" t="s">
-        <v>31</v>
-      </c>
-      <c r="J32">
-        <v>245</v>
-      </c>
-      <c r="K32">
-        <v>59</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B33">
         <v>2020</v>
@@ -1822,31 +1294,16 @@
       <c r="F33">
         <v>13</v>
       </c>
-      <c r="G33" t="s">
-        <v>27</v>
+      <c r="G33">
+        <v>2</v>
       </c>
       <c r="H33" t="s">
-        <v>30</v>
-      </c>
-      <c r="I33" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33">
-        <v>187</v>
-      </c>
-      <c r="K33">
-        <v>79</v>
-      </c>
-      <c r="L33">
-        <v>3</v>
-      </c>
-      <c r="M33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B34">
         <v>2021</v>
@@ -1863,31 +1320,16 @@
       <c r="F34">
         <v>31</v>
       </c>
-      <c r="G34" t="s">
-        <v>26</v>
+      <c r="G34">
+        <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>29</v>
-      </c>
-      <c r="I34" t="s">
-        <v>33</v>
-      </c>
-      <c r="J34">
-        <v>456</v>
-      </c>
-      <c r="K34">
-        <v>61</v>
-      </c>
-      <c r="L34">
-        <v>3</v>
-      </c>
-      <c r="M34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B35">
         <v>2022</v>
@@ -1904,31 +1346,16 @@
       <c r="F35">
         <v>12</v>
       </c>
-      <c r="G35" t="s">
-        <v>27</v>
+      <c r="G35">
+        <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" t="s">
-        <v>32</v>
-      </c>
-      <c r="J35">
-        <v>372</v>
-      </c>
-      <c r="K35">
-        <v>62</v>
-      </c>
-      <c r="L35">
-        <v>3</v>
-      </c>
-      <c r="M35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B36">
         <v>2023</v>
@@ -1945,31 +1372,16 @@
       <c r="F36">
         <v>31</v>
       </c>
-      <c r="G36" t="s">
-        <v>25</v>
+      <c r="G36">
+        <v>2</v>
       </c>
       <c r="H36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I36" t="s">
-        <v>31</v>
-      </c>
-      <c r="J36">
-        <v>370</v>
-      </c>
-      <c r="K36">
-        <v>74</v>
-      </c>
-      <c r="L36">
-        <v>2</v>
-      </c>
-      <c r="M36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B37">
         <v>2019</v>
@@ -1986,31 +1398,16 @@
       <c r="F37">
         <v>17</v>
       </c>
-      <c r="G37" t="s">
-        <v>27</v>
+      <c r="G37">
+        <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>30</v>
-      </c>
-      <c r="I37" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37">
-        <v>252</v>
-      </c>
-      <c r="K37">
-        <v>78</v>
-      </c>
-      <c r="L37">
-        <v>3</v>
-      </c>
-      <c r="M37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B38">
         <v>2020</v>
@@ -2027,31 +1424,16 @@
       <c r="F38">
         <v>44</v>
       </c>
-      <c r="G38" t="s">
-        <v>26</v>
+      <c r="G38">
+        <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I38" t="s">
-        <v>32</v>
-      </c>
-      <c r="J38">
-        <v>215</v>
-      </c>
-      <c r="K38">
-        <v>59</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B39">
         <v>2021</v>
@@ -2068,31 +1450,16 @@
       <c r="F39">
         <v>23</v>
       </c>
-      <c r="G39" t="s">
-        <v>25</v>
+      <c r="G39">
+        <v>2</v>
       </c>
       <c r="H39" t="s">
-        <v>28</v>
-      </c>
-      <c r="I39" t="s">
-        <v>32</v>
-      </c>
-      <c r="J39">
-        <v>175</v>
-      </c>
-      <c r="K39">
-        <v>58</v>
-      </c>
-      <c r="L39">
-        <v>2</v>
-      </c>
-      <c r="M39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B40">
         <v>2022</v>
@@ -2109,31 +1476,16 @@
       <c r="F40">
         <v>25</v>
       </c>
-      <c r="G40" t="s">
-        <v>26</v>
+      <c r="G40">
+        <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>29</v>
-      </c>
-      <c r="I40" t="s">
-        <v>33</v>
-      </c>
-      <c r="J40">
-        <v>344</v>
-      </c>
-      <c r="K40">
-        <v>61</v>
-      </c>
-      <c r="L40">
-        <v>2</v>
-      </c>
-      <c r="M40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B41">
         <v>2023</v>
@@ -2150,31 +1502,16 @@
       <c r="F41">
         <v>34</v>
       </c>
-      <c r="G41" t="s">
-        <v>26</v>
+      <c r="G41">
+        <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>30</v>
-      </c>
-      <c r="I41" t="s">
-        <v>32</v>
-      </c>
-      <c r="J41">
-        <v>347</v>
-      </c>
-      <c r="K41">
-        <v>76</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B42">
         <v>2019</v>
@@ -2191,31 +1528,16 @@
       <c r="F42">
         <v>49</v>
       </c>
-      <c r="G42" t="s">
-        <v>26</v>
+      <c r="G42">
+        <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>30</v>
-      </c>
-      <c r="I42" t="s">
-        <v>33</v>
-      </c>
-      <c r="J42">
-        <v>356</v>
-      </c>
-      <c r="K42">
-        <v>47</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B43">
         <v>2020</v>
@@ -2232,31 +1554,16 @@
       <c r="F43">
         <v>41</v>
       </c>
-      <c r="G43" t="s">
-        <v>26</v>
+      <c r="G43">
+        <v>2</v>
       </c>
       <c r="H43" t="s">
-        <v>30</v>
-      </c>
-      <c r="I43" t="s">
-        <v>31</v>
-      </c>
-      <c r="J43">
-        <v>386</v>
-      </c>
-      <c r="K43">
-        <v>74</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B44">
         <v>2021</v>
@@ -2273,31 +1580,16 @@
       <c r="F44">
         <v>35</v>
       </c>
-      <c r="G44" t="s">
-        <v>25</v>
+      <c r="G44">
+        <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>29</v>
-      </c>
-      <c r="I44" t="s">
-        <v>31</v>
-      </c>
-      <c r="J44">
-        <v>100</v>
-      </c>
-      <c r="K44">
-        <v>70</v>
-      </c>
-      <c r="L44">
-        <v>2</v>
-      </c>
-      <c r="M44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B45">
         <v>2022</v>
@@ -2314,31 +1606,16 @@
       <c r="F45">
         <v>42</v>
       </c>
-      <c r="G45" t="s">
-        <v>26</v>
+      <c r="G45">
+        <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>28</v>
-      </c>
-      <c r="I45" t="s">
-        <v>31</v>
-      </c>
-      <c r="J45">
-        <v>215</v>
-      </c>
-      <c r="K45">
-        <v>60</v>
-      </c>
-      <c r="L45">
-        <v>2</v>
-      </c>
-      <c r="M45" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B46">
         <v>2023</v>
@@ -2355,31 +1632,16 @@
       <c r="F46">
         <v>37</v>
       </c>
-      <c r="G46" t="s">
-        <v>27</v>
+      <c r="G46">
+        <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>28</v>
-      </c>
-      <c r="I46" t="s">
-        <v>32</v>
-      </c>
-      <c r="J46">
-        <v>415</v>
-      </c>
-      <c r="K46">
-        <v>67</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B47">
         <v>2019</v>
@@ -2396,31 +1658,16 @@
       <c r="F47">
         <v>45</v>
       </c>
-      <c r="G47" t="s">
-        <v>26</v>
+      <c r="G47">
+        <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>30</v>
-      </c>
-      <c r="I47" t="s">
-        <v>31</v>
-      </c>
-      <c r="J47">
-        <v>208</v>
-      </c>
-      <c r="K47">
-        <v>59</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B48">
         <v>2020</v>
@@ -2437,31 +1684,16 @@
       <c r="F48">
         <v>39</v>
       </c>
-      <c r="G48" t="s">
-        <v>25</v>
+      <c r="G48">
+        <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>28</v>
-      </c>
-      <c r="I48" t="s">
-        <v>31</v>
-      </c>
-      <c r="J48">
-        <v>177</v>
-      </c>
-      <c r="K48">
-        <v>44</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B49">
         <v>2021</v>
@@ -2478,31 +1710,16 @@
       <c r="F49">
         <v>32</v>
       </c>
-      <c r="G49" t="s">
-        <v>27</v>
+      <c r="G49">
+        <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>28</v>
-      </c>
-      <c r="I49" t="s">
-        <v>31</v>
-      </c>
-      <c r="J49">
-        <v>288</v>
-      </c>
-      <c r="K49">
-        <v>77</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B50">
         <v>2022</v>
@@ -2519,31 +1736,16 @@
       <c r="F50">
         <v>26</v>
       </c>
-      <c r="G50" t="s">
-        <v>25</v>
+      <c r="G50">
+        <v>2</v>
       </c>
       <c r="H50" t="s">
-        <v>29</v>
-      </c>
-      <c r="I50" t="s">
-        <v>32</v>
-      </c>
-      <c r="J50">
-        <v>235</v>
-      </c>
-      <c r="K50">
-        <v>46</v>
-      </c>
-      <c r="L50">
-        <v>2</v>
-      </c>
-      <c r="M50" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B51">
         <v>2023</v>
@@ -2560,31 +1762,16 @@
       <c r="F51">
         <v>46</v>
       </c>
-      <c r="G51" t="s">
-        <v>26</v>
+      <c r="G51">
+        <v>2</v>
       </c>
       <c r="H51" t="s">
-        <v>30</v>
-      </c>
-      <c r="I51" t="s">
-        <v>32</v>
-      </c>
-      <c r="J51">
-        <v>470</v>
-      </c>
-      <c r="K51">
-        <v>79</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-      <c r="M51" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B52">
         <v>2019</v>
@@ -2601,31 +1788,16 @@
       <c r="F52">
         <v>42</v>
       </c>
-      <c r="G52" t="s">
-        <v>27</v>
+      <c r="G52">
+        <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>30</v>
-      </c>
-      <c r="I52" t="s">
-        <v>31</v>
-      </c>
-      <c r="J52">
-        <v>234</v>
-      </c>
-      <c r="K52">
-        <v>62</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B53">
         <v>2020</v>
@@ -2642,31 +1814,16 @@
       <c r="F53">
         <v>42</v>
       </c>
-      <c r="G53" t="s">
-        <v>25</v>
+      <c r="G53">
+        <v>2</v>
       </c>
       <c r="H53" t="s">
-        <v>29</v>
-      </c>
-      <c r="I53" t="s">
-        <v>31</v>
-      </c>
-      <c r="J53">
-        <v>316</v>
-      </c>
-      <c r="K53">
-        <v>74</v>
-      </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
-      <c r="M53" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B54">
         <v>2021</v>
@@ -2683,31 +1840,16 @@
       <c r="F54">
         <v>38</v>
       </c>
-      <c r="G54" t="s">
-        <v>26</v>
+      <c r="G54">
+        <v>2</v>
       </c>
       <c r="H54" t="s">
-        <v>29</v>
-      </c>
-      <c r="I54" t="s">
-        <v>32</v>
-      </c>
-      <c r="J54">
-        <v>217</v>
-      </c>
-      <c r="K54">
-        <v>73</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-      <c r="M54" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B55">
         <v>2022</v>
@@ -2724,31 +1866,16 @@
       <c r="F55">
         <v>22</v>
       </c>
-      <c r="G55" t="s">
-        <v>25</v>
+      <c r="G55">
+        <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>28</v>
-      </c>
-      <c r="I55" t="s">
-        <v>32</v>
-      </c>
-      <c r="J55">
-        <v>391</v>
-      </c>
-      <c r="K55">
-        <v>69</v>
-      </c>
-      <c r="L55">
-        <v>2</v>
-      </c>
-      <c r="M55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B56">
         <v>2023</v>
@@ -2765,31 +1892,16 @@
       <c r="F56">
         <v>14</v>
       </c>
-      <c r="G56" t="s">
-        <v>26</v>
+      <c r="G56">
+        <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>28</v>
-      </c>
-      <c r="I56" t="s">
-        <v>33</v>
-      </c>
-      <c r="J56">
-        <v>148</v>
-      </c>
-      <c r="K56">
-        <v>73</v>
-      </c>
-      <c r="L56">
-        <v>2</v>
-      </c>
-      <c r="M56" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B57">
         <v>2019</v>
@@ -2806,31 +1918,16 @@
       <c r="F57">
         <v>10</v>
       </c>
-      <c r="G57" t="s">
-        <v>27</v>
+      <c r="G57">
+        <v>2</v>
       </c>
       <c r="H57" t="s">
-        <v>28</v>
-      </c>
-      <c r="I57" t="s">
-        <v>31</v>
-      </c>
-      <c r="J57">
-        <v>142</v>
-      </c>
-      <c r="K57">
-        <v>45</v>
-      </c>
-      <c r="L57">
-        <v>3</v>
-      </c>
-      <c r="M57" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B58">
         <v>2020</v>
@@ -2847,31 +1944,16 @@
       <c r="F58">
         <v>33</v>
       </c>
-      <c r="G58" t="s">
-        <v>27</v>
+      <c r="G58">
+        <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>30</v>
-      </c>
-      <c r="I58" t="s">
-        <v>32</v>
-      </c>
-      <c r="J58">
-        <v>484</v>
-      </c>
-      <c r="K58">
-        <v>43</v>
-      </c>
-      <c r="L58">
-        <v>2</v>
-      </c>
-      <c r="M58" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B59">
         <v>2021</v>
@@ -2888,31 +1970,16 @@
       <c r="F59">
         <v>46</v>
       </c>
-      <c r="G59" t="s">
-        <v>25</v>
+      <c r="G59">
+        <v>2</v>
       </c>
       <c r="H59" t="s">
-        <v>29</v>
-      </c>
-      <c r="I59" t="s">
-        <v>33</v>
-      </c>
-      <c r="J59">
-        <v>348</v>
-      </c>
-      <c r="K59">
-        <v>46</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-      <c r="M59" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B60">
         <v>2022</v>
@@ -2929,31 +1996,16 @@
       <c r="F60">
         <v>25</v>
       </c>
-      <c r="G60" t="s">
-        <v>27</v>
+      <c r="G60">
+        <v>2</v>
       </c>
       <c r="H60" t="s">
-        <v>28</v>
-      </c>
-      <c r="I60" t="s">
-        <v>33</v>
-      </c>
-      <c r="J60">
-        <v>484</v>
-      </c>
-      <c r="K60">
-        <v>72</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="M60" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B61">
         <v>2023</v>
@@ -2970,26 +2022,11 @@
       <c r="F61">
         <v>20</v>
       </c>
-      <c r="G61" t="s">
-        <v>25</v>
+      <c r="G61">
+        <v>2</v>
       </c>
       <c r="H61" t="s">
-        <v>29</v>
-      </c>
-      <c r="I61" t="s">
-        <v>32</v>
-      </c>
-      <c r="J61">
-        <v>321</v>
-      </c>
-      <c r="K61">
-        <v>41</v>
-      </c>
-      <c r="L61">
-        <v>3</v>
-      </c>
-      <c r="M61" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/web/data/Hasil_Klastering_Kecelakaan_Padang_Lawas_Utara.xlsx
+++ b/web/data/Hasil_Klastering_Kecelakaan_Padang_Lawas_Utara.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_apps\apps_khopipah\web\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA7982A-FEC8-4EB2-94E1-F3EC2E1D89E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -76,17 +82,17 @@
     <t>Ujung Batu</t>
   </si>
   <si>
-    <t>Tidak Rawan</t>
-  </si>
-  <si>
-    <t>Rawan</t>
+    <t>C2 Tidak Rawan</t>
+  </si>
+  <si>
+    <t>C1 Rawan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,13 +155,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -193,7 +207,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -227,6 +241,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -261,9 +276,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -436,14 +452,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -495,7 +513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -521,7 +539,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -547,7 +565,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -573,7 +591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -599,7 +617,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -625,7 +643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -651,7 +669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -677,7 +695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -703,7 +721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -729,7 +747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -755,7 +773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -781,7 +799,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -807,7 +825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -833,7 +851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -859,7 +877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -885,7 +903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -911,7 +929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -937,7 +955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -963,7 +981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -989,7 +1007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1015,7 +1033,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1041,7 +1059,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1067,7 +1085,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1093,7 +1111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1119,7 +1137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1145,7 +1163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1171,7 +1189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1197,7 +1215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1223,7 +1241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1249,7 +1267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1275,7 +1293,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1301,7 +1319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -1327,7 +1345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1353,7 +1371,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1379,7 +1397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -1405,7 +1423,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -1431,7 +1449,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -1457,7 +1475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -1483,7 +1501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -1509,7 +1527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -1535,7 +1553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -1561,7 +1579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -1587,7 +1605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -1613,7 +1631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -1639,7 +1657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1665,7 +1683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -1691,7 +1709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -1717,7 +1735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -1743,7 +1761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -1769,7 +1787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -1795,7 +1813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -1821,7 +1839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -1847,7 +1865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -1873,7 +1891,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -1899,7 +1917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -1925,7 +1943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -1951,7 +1969,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -1977,7 +1995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -2003,7 +2021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>19</v>
       </c>

--- a/web/data/Hasil_Klastering_Kecelakaan_Padang_Lawas_Utara.xlsx
+++ b/web/data/Hasil_Klastering_Kecelakaan_Padang_Lawas_Utara.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_apps\apps_khopipah\web\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA7982A-FEC8-4EB2-94E1-F3EC2E1D89E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EC88CD-0AB9-4750-83C3-BACF12377F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,10 +82,10 @@
     <t>Ujung Batu</t>
   </si>
   <si>
-    <t>C2 Tidak Rawan</t>
-  </si>
-  <si>
-    <t>C1 Rawan</t>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C1</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/web/data/Hasil_Klastering_Kecelakaan_Padang_Lawas_Utara.xlsx
+++ b/web/data/Hasil_Klastering_Kecelakaan_Padang_Lawas_Utara.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_apps\apps_khopipah\web\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EC88CD-0AB9-4750-83C3-BACF12377F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="19">
   <si>
     <t>Kecamatan</t>
   </si>
@@ -58,9 +52,6 @@
     <t>Halongonan</t>
   </si>
   <si>
-    <t>Halongonan Timur</t>
-  </si>
-  <si>
     <t>Hulu Sihapas</t>
   </si>
   <si>
@@ -70,16 +61,10 @@
     <t>Padang Bolak Julu</t>
   </si>
   <si>
-    <t>Padang Bolak Tenggara</t>
-  </si>
-  <si>
     <t>Portibi</t>
   </si>
   <si>
     <t>Simangambat</t>
-  </si>
-  <si>
-    <t>Ujung Batu</t>
   </si>
   <si>
     <t>C2</t>
@@ -91,8 +76,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,21 +140,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -207,7 +184,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -241,7 +218,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -276,10 +252,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -452,16 +427,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -510,10 +483,10 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -536,10 +509,10 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -562,10 +535,10 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -588,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -614,10 +587,10 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -640,10 +613,10 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -666,10 +639,10 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -692,10 +665,10 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -718,10 +691,10 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -744,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -770,10 +743,10 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -796,10 +769,10 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -822,10 +795,10 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -848,10 +821,10 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -874,10 +847,10 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -900,10 +873,10 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -926,10 +899,10 @@
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -952,10 +925,10 @@
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -978,10 +951,10 @@
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1004,10 +977,10 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1015,25 +988,25 @@
         <v>2019</v>
       </c>
       <c r="C22">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F22">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1041,25 +1014,25 @@
         <v>2020</v>
       </c>
       <c r="C23">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F23">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1067,25 +1040,25 @@
         <v>2021</v>
       </c>
       <c r="C24">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F24">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1093,25 +1066,25 @@
         <v>2022</v>
       </c>
       <c r="C25">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E25">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F25">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1119,25 +1092,25 @@
         <v>2023</v>
       </c>
       <c r="C26">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1145,25 +1118,25 @@
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F27">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1174,22 +1147,22 @@
         <v>90</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F28">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G28">
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1197,25 +1170,25 @@
         <v>2021</v>
       </c>
       <c r="C29">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E29">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F29">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1223,25 +1196,25 @@
         <v>2022</v>
       </c>
       <c r="C30">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F30">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1249,25 +1222,25 @@
         <v>2023</v>
       </c>
       <c r="C31">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F31">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1275,25 +1248,25 @@
         <v>2019</v>
       </c>
       <c r="C32">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E32">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F32">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1301,25 +1274,25 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E33">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F33">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -1327,25 +1300,25 @@
         <v>2021</v>
       </c>
       <c r="C34">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F34">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1353,25 +1326,25 @@
         <v>2022</v>
       </c>
       <c r="C35">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F35">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1379,25 +1352,25 @@
         <v>2023</v>
       </c>
       <c r="C36">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F36">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -1405,25 +1378,25 @@
         <v>2019</v>
       </c>
       <c r="C37">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="D37">
         <v>8</v>
       </c>
       <c r="E37">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F37">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -1431,25 +1404,25 @@
         <v>2020</v>
       </c>
       <c r="C38">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38">
         <v>9</v>
       </c>
-      <c r="E38">
-        <v>17</v>
-      </c>
       <c r="F38">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -1457,25 +1430,25 @@
         <v>2021</v>
       </c>
       <c r="C39">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F39">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -1483,25 +1456,25 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F40">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G40">
         <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -1509,25 +1482,25 @@
         <v>2023</v>
       </c>
       <c r="C41">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="D41">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E41">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F41">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -1535,25 +1508,25 @@
         <v>2019</v>
       </c>
       <c r="C42">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="D42">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E42">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F42">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -1561,25 +1534,25 @@
         <v>2020</v>
       </c>
       <c r="C43">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E43">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G43">
         <v>2</v>
       </c>
       <c r="H43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -1587,25 +1560,25 @@
         <v>2021</v>
       </c>
       <c r="C44">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F44">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -1613,25 +1586,25 @@
         <v>2022</v>
       </c>
       <c r="C45">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="D45">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F45">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -1639,412 +1612,22 @@
         <v>2023</v>
       </c>
       <c r="C46">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E46">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F46">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47">
-        <v>2019</v>
-      </c>
-      <c r="C47">
-        <v>153</v>
-      </c>
-      <c r="D47">
-        <v>8</v>
-      </c>
-      <c r="E47">
-        <v>10</v>
-      </c>
-      <c r="F47">
-        <v>45</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48">
-        <v>2020</v>
-      </c>
-      <c r="C48">
-        <v>182</v>
-      </c>
-      <c r="D48">
-        <v>8</v>
-      </c>
-      <c r="E48">
-        <v>9</v>
-      </c>
-      <c r="F48">
-        <v>39</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49">
-        <v>2021</v>
-      </c>
-      <c r="C49">
-        <v>137</v>
-      </c>
-      <c r="D49">
-        <v>4</v>
-      </c>
-      <c r="E49">
-        <v>13</v>
-      </c>
-      <c r="F49">
-        <v>32</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50">
-        <v>2022</v>
-      </c>
-      <c r="C50">
-        <v>69</v>
-      </c>
-      <c r="D50">
-        <v>7</v>
-      </c>
-      <c r="E50">
-        <v>7</v>
-      </c>
-      <c r="F50">
-        <v>26</v>
-      </c>
-      <c r="G50">
-        <v>2</v>
-      </c>
-      <c r="H50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51">
-        <v>2023</v>
-      </c>
-      <c r="C51">
-        <v>99</v>
-      </c>
-      <c r="D51">
-        <v>5</v>
-      </c>
-      <c r="E51">
-        <v>16</v>
-      </c>
-      <c r="F51">
-        <v>46</v>
-      </c>
-      <c r="G51">
-        <v>2</v>
-      </c>
-      <c r="H51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52">
-        <v>2019</v>
-      </c>
-      <c r="C52">
-        <v>55</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-      <c r="E52">
-        <v>16</v>
-      </c>
-      <c r="F52">
-        <v>42</v>
-      </c>
-      <c r="G52">
-        <v>2</v>
-      </c>
-      <c r="H52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53">
-        <v>2020</v>
-      </c>
-      <c r="C53">
-        <v>80</v>
-      </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
-      <c r="E53">
-        <v>9</v>
-      </c>
-      <c r="F53">
-        <v>42</v>
-      </c>
-      <c r="G53">
-        <v>2</v>
-      </c>
-      <c r="H53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54">
-        <v>2021</v>
-      </c>
-      <c r="C54">
-        <v>55</v>
-      </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-      <c r="E54">
-        <v>14</v>
-      </c>
-      <c r="F54">
-        <v>38</v>
-      </c>
-      <c r="G54">
-        <v>2</v>
-      </c>
-      <c r="H54" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55">
-        <v>2022</v>
-      </c>
-      <c r="C55">
-        <v>176</v>
-      </c>
-      <c r="D55">
-        <v>8</v>
-      </c>
-      <c r="E55">
-        <v>3</v>
-      </c>
-      <c r="F55">
-        <v>22</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56">
-        <v>2023</v>
-      </c>
-      <c r="C56">
-        <v>169</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56">
-        <v>7</v>
-      </c>
-      <c r="F56">
-        <v>14</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57">
-        <v>2019</v>
-      </c>
-      <c r="C57">
-        <v>70</v>
-      </c>
-      <c r="D57">
-        <v>9</v>
-      </c>
-      <c r="E57">
-        <v>10</v>
-      </c>
-      <c r="F57">
-        <v>10</v>
-      </c>
-      <c r="G57">
-        <v>2</v>
-      </c>
-      <c r="H57" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58">
-        <v>2020</v>
-      </c>
-      <c r="C58">
-        <v>182</v>
-      </c>
-      <c r="D58">
-        <v>4</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>33</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59">
-        <v>2021</v>
-      </c>
-      <c r="C59">
-        <v>76</v>
-      </c>
-      <c r="D59">
-        <v>8</v>
-      </c>
-      <c r="E59">
-        <v>14</v>
-      </c>
-      <c r="F59">
-        <v>46</v>
-      </c>
-      <c r="G59">
-        <v>2</v>
-      </c>
-      <c r="H59" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60">
-        <v>2022</v>
-      </c>
-      <c r="C60">
-        <v>90</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>12</v>
-      </c>
-      <c r="F60">
-        <v>25</v>
-      </c>
-      <c r="G60">
-        <v>2</v>
-      </c>
-      <c r="H60" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61">
-        <v>2023</v>
-      </c>
-      <c r="C61">
-        <v>102</v>
-      </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="E61">
-        <v>15</v>
-      </c>
-      <c r="F61">
-        <v>20</v>
-      </c>
-      <c r="G61">
-        <v>2</v>
-      </c>
-      <c r="H61" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
